--- a/web/public/resource/file/uploads/input.xlsx
+++ b/web/public/resource/file/uploads/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21660" activeTab="2"/>
+    <workbookView windowHeight="21480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="模型说明" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="4、结果计算" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">功能点拆分表!$A$1:$K$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">功能点拆分表!$A$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="223">
   <si>
     <r>
       <rPr>
@@ -523,129 +523,6 @@
   </si>
   <si>
     <t>预处理数据量、预处理日志、预处理配置、预处理规则</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板维护</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板新增</t>
-  </si>
-  <si>
-    <t>接收message日志gz相关信息过滤模板新增指令</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板新增请求数据</t>
-  </si>
-  <si>
-    <t>来源、警报触发、过滤通知、统计信息、过滤条件</t>
-  </si>
-  <si>
-    <t>新增message日志gz相关信息过滤模板信息</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板新增记录</t>
-  </si>
-  <si>
-    <t>格式、来源、清理策略、过滤异常</t>
-  </si>
-  <si>
-    <t>返回message日志gz相关信息过滤模板新增结果</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板新增记录插入</t>
-  </si>
-  <si>
-    <t>来源、关联记录、时间戳</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板删除</t>
-  </si>
-  <si>
-    <t>接收message日志gz相关信息过滤模板删除指令</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板删除请求数据</t>
-  </si>
-  <si>
-    <t>来源、过滤条件、过滤条件</t>
-  </si>
-  <si>
-    <t>删除message日志gz相关信息过滤模板</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板删除记录</t>
-  </si>
-  <si>
-    <t>过滤清洗、时间戳、日志级别</t>
-  </si>
-  <si>
-    <t>返回message日志gz相关信息过滤模板删除结果</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板删除记录插入</t>
-  </si>
-  <si>
-    <t>过滤条件、过滤条件、日志级别</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板修改</t>
-  </si>
-  <si>
-    <t>接收message日志gz相关信息过滤模板修改指令</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板修改请求数据</t>
-  </si>
-  <si>
-    <t>过滤数据量、过滤策略、过滤配置、过滤确认、日志级别</t>
-  </si>
-  <si>
-    <t>修改message日志gz相关信息过滤模板</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板修改记录</t>
-  </si>
-  <si>
-    <t>过滤任务ID、过滤配置、过滤时间</t>
-  </si>
-  <si>
-    <t>返回message日志gz相关信息过滤模板修改结果</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板修改记录插入</t>
-  </si>
-  <si>
-    <t>时间戳、过滤结果、自动化处理、过滤类型</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板查询</t>
-  </si>
-  <si>
-    <t>接收message日志gz相关信息过滤模板查询指令</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板查询请求数据</t>
-  </si>
-  <si>
-    <t>过滤清洗、存储路径、审计跟踪、过滤规则</t>
-  </si>
-  <si>
-    <t>查询获取message日志gz相关信息过滤模板</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板查询记录</t>
-  </si>
-  <si>
-    <t>过滤清洗、访问权限、清理策略</t>
-  </si>
-  <si>
-    <t>返回message日志gz相关信息过滤模板查询结果</t>
-  </si>
-  <si>
-    <t>message日志gz相关信息过滤模板查询记录插入</t>
-  </si>
-  <si>
-    <t>过滤进度、来源、过滤规则、格式</t>
   </si>
   <si>
     <t>附加值调整</t>
@@ -4889,12 +4766,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="16.8"/>
@@ -5821,366 +5698,18 @@
       </c>
       <c r="L31" s="76"/>
     </row>
-    <row r="32" ht="28.8" customHeight="1" spans="1:12">
-      <c r="A32" s="66"/>
-      <c r="B32" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="I32" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="J32" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="K32" s="73">
-        <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L32" s="74" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" ht="18" spans="1:12">
-      <c r="A33" s="66"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="I33" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="J33" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="73">
-        <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L33" s="75"/>
-    </row>
-    <row r="34" ht="18" spans="1:12">
-      <c r="A34" s="66"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="I34" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="J34" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34" s="73">
-        <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L34" s="75"/>
-    </row>
-    <row r="35" ht="18" spans="1:12">
-      <c r="A35" s="66"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="F35" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="I35" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="J35" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="K35" s="73">
-        <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L35" s="75"/>
-    </row>
-    <row r="36" ht="18" spans="1:12">
-      <c r="A36" s="66"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="I36" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="J36" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36" s="73">
-        <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L36" s="75"/>
-    </row>
-    <row r="37" ht="18" spans="1:12">
-      <c r="A37" s="66"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="G37" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="I37" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="J37" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="K37" s="73">
-        <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L37" s="75"/>
-    </row>
-    <row r="38" ht="18" spans="1:12">
-      <c r="A38" s="66"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="I38" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="J38" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="K38" s="73">
-        <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L38" s="75"/>
-    </row>
-    <row r="39" ht="18" spans="1:12">
-      <c r="A39" s="66"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="70" t="s">
-        <v>155</v>
-      </c>
-      <c r="G39" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="I39" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="J39" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="K39" s="73">
-        <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L39" s="75"/>
-    </row>
-    <row r="40" ht="18" spans="1:12">
-      <c r="A40" s="66"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="G40" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="I40" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="J40" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="K40" s="73">
-        <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L40" s="75"/>
-    </row>
-    <row r="41" ht="18" spans="1:12">
-      <c r="A41" s="66"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" s="70" t="s">
-        <v>162</v>
-      </c>
-      <c r="G41" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="I41" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="J41" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="K41" s="73">
-        <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L41" s="75"/>
-    </row>
-    <row r="42" ht="18" spans="1:12">
-      <c r="A42" s="66"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="G42" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="I42" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="J42" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="K42" s="73">
-        <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L42" s="75"/>
-    </row>
-    <row r="43" ht="18" spans="1:12">
-      <c r="A43" s="66"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="G43" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="I43" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="J43" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="K43" s="73">
-        <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L43" s="76"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K43">
+  <autoFilter ref="A1:K31">
     <extLst/>
   </autoFilter>
-  <mergeCells count="41">
-    <mergeCell ref="A2:A43"/>
+  <mergeCells count="30">
+    <mergeCell ref="A2:A31"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="B14:B22"/>
     <mergeCell ref="B23:B31"/>
-    <mergeCell ref="B32:B43"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="C23:C31"/>
-    <mergeCell ref="C32:C43"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
@@ -6191,10 +5720,6 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D41:D43"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E10"/>
@@ -6205,17 +5730,12 @@
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E26:E28"/>
     <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E41:E43"/>
     <mergeCell ref="L2:L13"/>
     <mergeCell ref="L14:L22"/>
     <mergeCell ref="L23:L31"/>
-    <mergeCell ref="L32:L43"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J43">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J31">
       <formula1>"新增,复用,利旧"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6247,7 +5767,7 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:9">
       <c r="A1" s="25" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -6260,11 +5780,11 @@
     </row>
     <row r="2" ht="16.95" customHeight="1" spans="1:4">
       <c r="A2" s="28" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="29" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="D2" s="14">
         <f>C56</f>
@@ -6278,7 +5798,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="30" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="D3" s="9">
         <f>IF(C3=B43,D43,IF(C3=B44,D44,IF(C3=B45,D45,IF(C3=B46,D46))))</f>
@@ -6289,11 +5809,11 @@
     </row>
     <row r="4" ht="16.95" customHeight="1" spans="1:4">
       <c r="A4" s="28" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="D4" s="31">
         <f>IF(C4=B14,D14,IF(C4=B15,D15,IF(C4=B16,D16,IF(C4=B16,D16,IF(C4=B17,D17,IF(C4=B18,D18,IF(C4=B19,D19,IF(C4=B20,D20,0))))))))</f>
@@ -6302,13 +5822,13 @@
     </row>
     <row r="5" ht="34.05" customHeight="1" spans="1:4">
       <c r="A5" s="28" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="D5" s="33">
         <f>IF(C5=C23,D23,IF(C5=C24,D24,-10))</f>
@@ -6318,10 +5838,10 @@
     <row r="6" ht="16.95" customHeight="1" spans="1:4">
       <c r="A6" s="28"/>
       <c r="B6" s="32" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="D6" s="33">
         <f>IF(C6=C25,D25,IF(C6=C26,D26,-10))</f>
@@ -6331,10 +5851,10 @@
     <row r="7" ht="16.95" customHeight="1" spans="1:4">
       <c r="A7" s="28"/>
       <c r="B7" s="32" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="D7" s="33">
         <f>IF(C7=C27,D27,IF(C7=C28,D28,-10))</f>
@@ -6344,10 +5864,10 @@
     <row r="8" ht="16.95" customHeight="1" spans="1:4">
       <c r="A8" s="28"/>
       <c r="B8" s="32" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="D8" s="33">
         <f>IF(C8=C29,D29,IF(C8=C30,D30,-10))</f>
@@ -6356,11 +5876,11 @@
     </row>
     <row r="9" ht="16.95" customHeight="1" spans="1:4">
       <c r="A9" s="28" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="29" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="D9" s="31">
         <f>IF(C9=B33,D33,IF(C9=B34,D34,IF(C9=B35,D35,-10)))</f>
@@ -6369,11 +5889,11 @@
     </row>
     <row r="10" ht="16.95" customHeight="1" spans="1:4">
       <c r="A10" s="28" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="30" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="D10" s="31">
         <f>IF(C10=B38,D38,IF(C10=B39,D39,IF(C10=B40,D40,0)))</f>
@@ -6387,7 +5907,7 @@
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="30" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="D11" s="9">
         <f>IF(C11=B49,D49,IF(C11=B50,D50,IF(C11=B51,D51,IF(C11=B52,D52))))</f>
@@ -6402,21 +5922,21 @@
     </row>
     <row r="13" ht="16.95" customHeight="1" spans="2:4">
       <c r="B13" s="32" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" ht="16.95" customHeight="1" spans="2:4">
       <c r="B14" s="40" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="D14" s="42">
         <v>1</v>
@@ -6424,10 +5944,10 @@
     </row>
     <row r="15" ht="34.05" customHeight="1" spans="2:4">
       <c r="B15" s="40" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="D15" s="42">
         <v>1.2</v>
@@ -6435,10 +5955,10 @@
     </row>
     <row r="16" ht="16.95" customHeight="1" spans="2:4">
       <c r="B16" s="40" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="D16" s="42">
         <v>1.3</v>
@@ -6446,10 +5966,10 @@
     </row>
     <row r="17" ht="16.95" customHeight="1" spans="2:4">
       <c r="B17" s="40" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="D17" s="42">
         <v>1.7</v>
@@ -6457,10 +5977,10 @@
     </row>
     <row r="18" ht="16.95" customHeight="1" spans="2:4">
       <c r="B18" s="40" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="D18" s="42">
         <v>1.7</v>
@@ -6468,10 +5988,10 @@
     </row>
     <row r="19" ht="16.95" customHeight="1" spans="2:4">
       <c r="B19" s="40" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="D19" s="42">
         <v>1.9</v>
@@ -6479,10 +5999,10 @@
     </row>
     <row r="20" ht="16.95" customHeight="1" spans="2:4">
       <c r="B20" s="40" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="D20" s="42">
         <v>2</v>
@@ -6495,27 +6015,27 @@
     </row>
     <row r="22" ht="16.95" customHeight="1" spans="2:6">
       <c r="B22" s="32" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" ht="16.95" customHeight="1" spans="2:5">
       <c r="B23" s="40" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="D23" s="40">
         <v>-1</v>
@@ -6525,7 +6045,7 @@
     <row r="24" ht="34.05" customHeight="1" spans="2:5">
       <c r="B24" s="40"/>
       <c r="C24" s="41" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="D24" s="40">
         <v>1</v>
@@ -6534,10 +6054,10 @@
     </row>
     <row r="25" ht="16.95" customHeight="1" spans="2:5">
       <c r="B25" s="40" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="D25" s="40">
         <v>-1</v>
@@ -6547,7 +6067,7 @@
     <row r="26" ht="16.95" customHeight="1" spans="2:5">
       <c r="B26" s="40"/>
       <c r="C26" s="41" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="D26" s="40">
         <v>1</v>
@@ -6556,10 +6076,10 @@
     </row>
     <row r="27" ht="16.95" customHeight="1" spans="2:5">
       <c r="B27" s="40" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="D27" s="40">
         <v>-1</v>
@@ -6569,7 +6089,7 @@
     <row r="28" ht="16.95" customHeight="1" spans="2:5">
       <c r="B28" s="40"/>
       <c r="C28" s="41" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="D28" s="40">
         <v>1</v>
@@ -6578,10 +6098,10 @@
     </row>
     <row r="29" ht="16.95" customHeight="1" spans="2:5">
       <c r="B29" s="40" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="D29" s="40">
         <v>-1</v>
@@ -6591,7 +6111,7 @@
     <row r="30" ht="16.95" customHeight="1" spans="2:5">
       <c r="B30" s="40"/>
       <c r="C30" s="41" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="D30" s="40">
         <v>1</v>
@@ -6601,29 +6121,29 @@
     <row r="31" ht="16.95" customHeight="1"/>
     <row r="32" ht="16.05" customHeight="1" spans="2:4">
       <c r="B32" s="46" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="32" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" ht="16.05" customHeight="1" spans="2:10">
       <c r="B33" s="40" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="42">
         <v>1.2</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="J33" s="62"/>
     </row>
     <row r="34" ht="15" customHeight="1" spans="2:4">
       <c r="B34" s="40" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="42">
@@ -6632,7 +6152,7 @@
     </row>
     <row r="35" ht="15" customHeight="1" spans="2:4">
       <c r="B35" s="40" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="42">
@@ -6644,16 +6164,16 @@
     </row>
     <row r="37" ht="16.95" customHeight="1" spans="2:4">
       <c r="B37" s="32" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="C37" s="32"/>
       <c r="D37" s="32" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" ht="16.95" customHeight="1" spans="2:4">
       <c r="B38" s="40" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="42">
@@ -6662,7 +6182,7 @@
     </row>
     <row r="39" ht="16.95" customHeight="1" spans="2:4">
       <c r="B39" s="40" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="C39" s="40"/>
       <c r="D39" s="42">
@@ -6671,7 +6191,7 @@
     </row>
     <row r="40" ht="16.95" customHeight="1" spans="2:4">
       <c r="B40" s="40" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="42">
@@ -6681,17 +6201,17 @@
     <row r="41" ht="16.95" customHeight="1"/>
     <row r="42" ht="16.95" customHeight="1" spans="2:4">
       <c r="B42" s="46" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="C42" s="49"/>
       <c r="D42" s="47"/>
     </row>
     <row r="43" ht="16.95" customHeight="1" spans="2:4">
       <c r="B43" s="40" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="D43" s="50">
         <v>2</v>
@@ -6699,10 +6219,10 @@
     </row>
     <row r="44" ht="16.95" customHeight="1" spans="2:4">
       <c r="B44" s="40" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="D44" s="50">
         <v>1.5</v>
@@ -6710,10 +6230,10 @@
     </row>
     <row r="45" ht="16.95" customHeight="1" spans="2:4">
       <c r="B45" s="40" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="D45" s="50">
         <v>1.26</v>
@@ -6721,10 +6241,10 @@
     </row>
     <row r="46" ht="16.95" customHeight="1" spans="2:4">
       <c r="B46" s="40" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="D46" s="50">
         <v>1</v>
@@ -6741,7 +6261,7 @@
     <row r="48" ht="16.95" customHeight="1" spans="1:6">
       <c r="A48" s="51"/>
       <c r="B48" s="46" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="C48" s="49"/>
       <c r="D48" s="47"/>
@@ -6751,10 +6271,10 @@
     <row r="49" ht="16.95" customHeight="1" spans="1:6">
       <c r="A49" s="51"/>
       <c r="B49" s="40" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="D49" s="50">
         <f>(1.6+1.8)/2</f>
@@ -6766,10 +6286,10 @@
     <row r="50" ht="16.95" customHeight="1" spans="1:6">
       <c r="A50" s="51"/>
       <c r="B50" s="40" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D50" s="50">
         <f>(1.3+1.5)/2</f>
@@ -6781,10 +6301,10 @@
     <row r="51" ht="16.95" customHeight="1" spans="1:6">
       <c r="A51" s="51"/>
       <c r="B51" s="40" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="D51" s="50">
         <f>(1.1+1.2)/2</f>
@@ -6795,10 +6315,10 @@
     </row>
     <row r="52" ht="16.95" customHeight="1" spans="2:4">
       <c r="B52" s="40" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D52" s="50">
         <v>1</v>
@@ -6810,13 +6330,13 @@
     </row>
     <row r="55" ht="16.95" customHeight="1" spans="2:6">
       <c r="B55" s="32" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="D55" s="54" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="E55" s="53"/>
       <c r="F55" s="53"/>
@@ -6824,13 +6344,13 @@
     <row r="56" ht="16.95" customHeight="1" spans="1:6">
       <c r="A56" s="51"/>
       <c r="B56" s="40" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="C56" s="40">
         <v>1.4183</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="53"/>
@@ -6928,7 +6448,7 @@
   <sheetData>
     <row r="1" ht="22.05" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6936,31 +6456,31 @@
     </row>
     <row r="2" ht="19.05" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" ht="19.05" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4">
         <v>345</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" ht="19.05" customHeight="1" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -6971,7 +6491,7 @@
     </row>
     <row r="5" ht="19.05" customHeight="1" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="9">
@@ -6979,12 +6499,12 @@
         <v>345</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" ht="19.05" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="10">
@@ -6995,7 +6515,7 @@
     </row>
     <row r="7" ht="19.05" customHeight="1" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="9">
@@ -7003,53 +6523,53 @@
         <v>489.3135</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" ht="19.05" customHeight="1" spans="1:4">
       <c r="A8" s="11" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" ht="19.05" customHeight="1" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C9" s="14">
         <f>C10*C11*C12</f>
         <v>1.8931818464818</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" ht="19.05" customHeight="1" spans="1:4">
       <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="C10" s="14">
         <f>0.2309*LN(C5)+0.3718</f>
         <v>1.72107440589254</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" ht="19.05" customHeight="1" spans="1:4">
       <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="C11" s="16">
         <f>'3、附加值调整'!D4</f>
@@ -7060,7 +6580,7 @@
     <row r="12" ht="19.05" customHeight="1" spans="1:4">
       <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="C12" s="18">
         <f>('3、附加值调整'!D5+'3、附加值调整'!D6+'3、附加值调整'!D7+'3、附加值调整'!D8)*0.025+1</f>
@@ -7082,10 +6602,10 @@
     </row>
     <row r="14" ht="19.05" customHeight="1" spans="1:4">
       <c r="A14" s="13" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="C14" s="8">
         <f>'3、附加值调整'!D9</f>
@@ -7096,7 +6616,7 @@
     <row r="15" ht="19.05" customHeight="1" spans="1:4">
       <c r="A15" s="17"/>
       <c r="B15" s="20" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="C15" s="8">
         <f>'3、附加值调整'!D10</f>
@@ -7106,7 +6626,7 @@
     </row>
     <row r="16" ht="19.05" customHeight="1" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="9">
@@ -7114,12 +6634,12 @@
         <v>741.087548350776</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" ht="19.05" customHeight="1" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="22">
@@ -7129,7 +6649,7 @@
     </row>
     <row r="18" ht="19.05" customHeight="1" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="24">
@@ -7140,7 +6660,7 @@
     </row>
     <row r="19" ht="19.05" customHeight="1" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="24">
